--- a/data/EnergyIndicators.xlsx
+++ b/data/EnergyIndicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylormade/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB554F91-F62A-E14C-B99C-2245AAFAF8C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1EDB612D-438D-CF4F-95B3-C6CD54DE4008}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="460" windowWidth="17760" windowHeight="16360" xr2:uid="{225E1CA5-F2D5-8744-AEEE-98ED0D8C135E}"/>
+    <workbookView xWindow="5680" yWindow="460" windowWidth="17760" windowHeight="16360" xr2:uid="{225E1CA5-F2D5-8744-AEEE-98ED0D8C135E}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy" sheetId="1" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
